--- a/Machine Learning/Data/Data_AMR.xlsx
+++ b/Machine Learning/Data/Data_AMR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\Thermal Regenerators\Machine Learning\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87498CE2-69EA-4F2E-95ED-FC240045AFEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFA31F0-0E06-4C61-9920-A1F71ADAAAC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4995" yWindow="3165" windowWidth="15330" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -336,7 +336,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
